--- a/data/trans_bre/P37-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P37-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P37-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P37-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,49</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,06%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,05%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,34%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>235,43%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,63; 0,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,75; 0,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,64; 1,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,07; 14,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,43; 44,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,74; 6,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,04; 45,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,72; 885,67</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,08%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,31%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,65%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,12; 1,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,39; 2,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,09; 2,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 9,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,95; 48,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,77; 48,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,18; 80,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,96; 109,57</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,23%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,28%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>141,6%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,47%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,77; 3,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,19; 2,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,55; 6,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,86; 4,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,75; 88,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,63; 40,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,33; 361,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,84; 34,56</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,12%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,27%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,57%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,34; 0,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,48; 2,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,13; 1,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,63; 7,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,98; 18,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,43; 31,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,48; 27,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,16; 50,0</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,55%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,58%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,23%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,64%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,19; 4,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,5; 4,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,11; 3,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,61; 5,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,13; 27,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,86; 31,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,34; 18,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,57; 14,68</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,84</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,9</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,34%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,02%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,69%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,42; 7,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,94; -0,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,46; 1,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 8,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,74; 14,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,38; -1,15</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,89; 2,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 10,82</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,64</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,22%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,98%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,26; 3,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,34; 2,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,33; 3,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,73; 12,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,67; 28,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,15; 15,63</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,99; 23,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,85; 42,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P37-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P37-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,49</t>
+          <t>8,79</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>235,43%</t>
+          <t>232,65%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,07; 14,23</t>
+          <t>3,19; 14,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>26,72; 885,67</t>
+          <t>20,42; 880,35</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,86</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>43,65%</t>
+          <t>30,85%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 9,67</t>
+          <t>-3,85; 8,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 109,57</t>
+          <t>-24,4; 103,61</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>3,09%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 4,56</t>
+          <t>-3,58; 4,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-20,84; 34,56</t>
+          <t>-19,38; 37,52</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,04</t>
+          <t>6,86</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,57%</t>
+          <t>46,28%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 7,94</t>
+          <t>-0,39; 16,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 50,0</t>
+          <t>-2,36; 210,69</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,72%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 5,03</t>
+          <t>-4,54; 4,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 14,68</t>
+          <t>-11,38; 14,47</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>4,69</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-5,84</t>
+          <t>-9,68</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-3,9</t>
+          <t>-3,88</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>9,19</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-9,34%</t>
+          <t>-16,83%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-7,02%</t>
+          <t>-8,29%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>12,56%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 7,07</t>
+          <t>-3,38; 11,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,94; -0,69</t>
+          <t>-17,05; -1,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 1,5</t>
+          <t>-10,59; 3,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 8,52</t>
+          <t>-1,19; 23,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 14,99</t>
+          <t>-7,34; 32,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-18,38; -1,15</t>
+          <t>-27,77; -3,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-15,89; 2,97</t>
+          <t>-21,3; 8,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 10,82</t>
+          <t>-1,64; 33,43</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>-6,29</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>-4,03</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>-7,03</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,64</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>14,22%</t>
+          <t>-9,24%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>-5,85%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>-10,51%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>20,98%</t>
+          <t>-1,69%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-14,26; 2,44</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-11,46; 4,38</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-14,23; 0,32</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-5,57; 2,32</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-20,19; 3,72</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-15,91; 6,7</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-20,44; 0,74</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-6,14; 2,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1,97</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,6</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1,55</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>10,04</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>14,22%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3,38%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>9,84%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>34,6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>0,26; 3,74</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-1,34; 2,57</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-0,33; 3,45</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>3,73; 12,77</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4,11; 22,39</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>1,67; 28,25</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-7,15; 15,63</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>-1,99; 23,28</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>10,85; 42,01</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>13,85; 90,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P37-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P37-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 0,86</t>
+          <t>-3,6; 1,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 0,15</t>
+          <t>-5,84; 0,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 1,32</t>
+          <t>-4,39; 1,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,19; 14,66</t>
+          <t>3,02; 15,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-72,43; 44,7</t>
+          <t>-71,23; 45,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-73,74; 6,24</t>
+          <t>-73,2; 7,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-65,04; 45,45</t>
+          <t>-63,09; 51,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,42; 880,35</t>
+          <t>23,61; 865,63</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 1,48</t>
+          <t>-2,95; 1,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 2,09</t>
+          <t>-3,37; 1,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 2,43</t>
+          <t>-2,17; 2,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 8,71</t>
+          <t>-4,34; 8,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-54,95; 48,51</t>
+          <t>-52,32; 44,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-44,77; 48,25</t>
+          <t>-47,72; 38,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-41,18; 80,82</t>
+          <t>-42,17; 84,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-24,4; 103,61</t>
+          <t>-27,18; 106,12</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 3,75</t>
+          <t>-1,77; 3,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 2,49</t>
+          <t>-3,01; 2,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 6,34</t>
+          <t>1,42; 6,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 4,68</t>
+          <t>-4,13; 4,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-25,75; 88,24</t>
+          <t>-28,29; 79,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-35,63; 40,7</t>
+          <t>-34,31; 44,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>35,33; 361,76</t>
+          <t>34,84; 350,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-19,38; 37,52</t>
+          <t>-22,01; 33,4</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 0,93</t>
+          <t>-5,45; 0,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 2,07</t>
+          <t>-4,65; 2,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 1,89</t>
+          <t>-4,31; 1,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 16,92</t>
+          <t>-0,19; 16,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-57,98; 18,92</t>
+          <t>-58,17; 17,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-44,43; 31,0</t>
+          <t>-47,0; 31,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-42,48; 27,97</t>
+          <t>-43,53; 31,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 210,69</t>
+          <t>-0,77; 268,84</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 4,42</t>
+          <t>-6,02; 4,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 4,98</t>
+          <t>-6,37; 5,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 3,08</t>
+          <t>-6,97; 3,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 4,97</t>
+          <t>-4,77; 4,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-29,13; 27,2</t>
+          <t>-29,62; 32,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-24,86; 31,34</t>
+          <t>-26,97; 32,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-33,34; 18,66</t>
+          <t>-32,83; 19,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 14,47</t>
+          <t>-12,06; 13,48</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 11,47</t>
+          <t>-3,49; 12,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-17,05; -1,81</t>
+          <t>-17,56; -0,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 3,86</t>
+          <t>-10,71; 4,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 23,12</t>
+          <t>-1,18; 22,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 32,08</t>
+          <t>-8,1; 35,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,77; -3,46</t>
+          <t>-28,36; -1,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-21,3; 8,56</t>
+          <t>-21,32; 10,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 33,43</t>
+          <t>-1,58; 32,72</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,26; 2,44</t>
+          <t>-15,19; 1,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 4,38</t>
+          <t>-12,04; 4,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,23; 0,32</t>
+          <t>-14,32; 0,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 2,32</t>
+          <t>-5,35; 2,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-20,19; 3,72</t>
+          <t>-20,73; 2,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,91; 6,7</t>
+          <t>-16,57; 5,87</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-20,44; 0,74</t>
+          <t>-20,32; 0,2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 2,71</t>
+          <t>-5,92; 2,99</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,26; 3,74</t>
+          <t>0,3; 3,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 2,57</t>
+          <t>-1,33; 2,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 3,45</t>
+          <t>-0,27; 3,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,11; 22,39</t>
+          <t>4,57; 22,68</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,67; 28,25</t>
+          <t>2,02; 29,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 15,63</t>
+          <t>-6,97; 14,79</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 23,28</t>
+          <t>-1,74; 23,56</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>13,85; 90,85</t>
+          <t>14,35; 91,46</t>
         </is>
       </c>
     </row>
